--- a/public/mno-volume-statistics-updates.xlsx
+++ b/public/mno-volume-statistics-updates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaput\Documents\ZICTA\Documents\mno stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\Zicta\zicta-website-client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C881A77-6EEC-406A-ADFD-EA2C9B293F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23922539-EBB8-439B-9EBC-EA9A62682D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume-Statistics" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Number of active Subscribers</t>
   </si>
@@ -575,38 +575,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="21" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="17" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="2" customFormat="1" ht="72.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="22">
         <v>2010</v>
       </c>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="22">
         <v>2011</v>
       </c>
@@ -744,7 +744,7 @@
         <v>49.245441656458382</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="22">
         <v>2012</v>
       </c>
@@ -788,7 +788,7 @@
         <v>60.286471522215457</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="22">
         <v>2013</v>
       </c>
@@ -832,7 +832,7 @@
         <v>63.36148780967752</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <v>2014</v>
       </c>
@@ -876,7 +876,7 @@
         <v>86.632294176483001</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>2015</v>
       </c>
@@ -920,7 +920,7 @@
         <v>74.159019919577602</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2016</v>
       </c>
@@ -964,7 +964,7 @@
         <v>112.91263767799593</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2016</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>81.185269060961815</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2016</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>100.04220056635103</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2016</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>73.924448356668819</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>2016</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>87.715361745391306</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2017</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>74.129126149529242</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2017</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>76.116606167143019</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2017</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>86.312325458286978</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2017</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>67.985744092667616</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>2017</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>71.858791940538239</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2018</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>84.269952252635804</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2018</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>84.605107391166541</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>2018</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>102.12421181646299</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>2018</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>100.64806371382014</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="22">
         <v>2018</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>86.343999284162081</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>2019</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>94.465493673833819</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>2019</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>93.379731260764459</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2019</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>93.921368278238944</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>2019</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>108.69975086631189</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="22">
         <v>2019</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>93.82824164289525</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>105.0222445154114</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>2020</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>105.94635701215083</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>2020</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>109.54430127693132</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>2020</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>115.67805672778131</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="22">
         <v>2020</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>103.91590437509895</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>2021</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>104.43803228436951</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>2021</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>108.82027766804016</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>2021</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>123.51290140591379</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>2021</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>121.72536140472914</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="22">
         <v>2021</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>112.34689887211728</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>2022</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>126.13168498197643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>2022</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>139.0357172893651</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>2022</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>153.08280506374567</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>2022</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>147.75354189958421</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="22">
         <v>2022</v>
       </c>
@@ -2458,6 +2458,231 @@
       </c>
       <c r="O42" s="26">
         <v>137.71392023143247</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6">
+        <v>19610769</v>
+      </c>
+      <c r="E43" s="16">
+        <v>3</v>
+      </c>
+      <c r="F43" s="11">
+        <v>19653681</v>
+      </c>
+      <c r="G43" s="20">
+        <v>100.21881854811508</v>
+      </c>
+      <c r="H43" s="11">
+        <v>11025912</v>
+      </c>
+      <c r="I43" s="12">
+        <v>56.223761546525786</v>
+      </c>
+      <c r="J43" s="10">
+        <v>969544158.89996123</v>
+      </c>
+      <c r="K43" s="10">
+        <v>6868982385.6199989</v>
+      </c>
+      <c r="L43" s="10">
+        <v>3622698.9933366664</v>
+      </c>
+      <c r="M43" s="10">
+        <v>2764683.166666666</v>
+      </c>
+      <c r="N43" s="10">
+        <v>3115435611.1123009</v>
+      </c>
+      <c r="O43" s="16">
+        <f>SUM(J43:N43)/F43/3</f>
+        <v>185.89137810523917</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6">
+        <v>19610769</v>
+      </c>
+      <c r="E44" s="16">
+        <v>3</v>
+      </c>
+      <c r="F44" s="11">
+        <v>20073710</v>
+      </c>
+      <c r="G44" s="20">
+        <v>102.36064684663819</v>
+      </c>
+      <c r="H44" s="11">
+        <v>11382129</v>
+      </c>
+      <c r="I44" s="12">
+        <v>58.040197199814038</v>
+      </c>
+      <c r="J44" s="10">
+        <v>1006667436.7166666</v>
+      </c>
+      <c r="K44" s="10">
+        <v>7618616329.8833313</v>
+      </c>
+      <c r="L44" s="10">
+        <v>2670983.7999999993</v>
+      </c>
+      <c r="M44" s="10">
+        <v>2686069.0833333326</v>
+      </c>
+      <c r="N44" s="10">
+        <v>3284001493</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" ref="O44:O46" si="0">SUM(J44:N44)/F44/3</f>
+        <v>197.84820232505319</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6">
+        <v>19610769</v>
+      </c>
+      <c r="E45" s="16">
+        <v>3</v>
+      </c>
+      <c r="F45" s="11">
+        <v>19734270</v>
+      </c>
+      <c r="G45" s="20">
+        <v>100.6297611276743</v>
+      </c>
+      <c r="H45" s="11">
+        <v>12324475</v>
+      </c>
+      <c r="I45" s="12">
+        <v>62.845444765577533</v>
+      </c>
+      <c r="J45" s="10">
+        <v>1114176299.4333332</v>
+      </c>
+      <c r="K45" s="10">
+        <v>8609997562.9207268</v>
+      </c>
+      <c r="L45" s="10">
+        <v>3902369.05</v>
+      </c>
+      <c r="M45" s="10">
+        <v>3898678.0573243108</v>
+      </c>
+      <c r="N45" s="10">
+        <v>3776966841.7149992</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="0"/>
+        <v>228.18075275778938</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6">
+        <v>19610769</v>
+      </c>
+      <c r="E46" s="16">
+        <v>3</v>
+      </c>
+      <c r="F46" s="11">
+        <v>19923309</v>
+      </c>
+      <c r="G46" s="20">
+        <v>101.59371618726425</v>
+      </c>
+      <c r="H46" s="11">
+        <v>12469624.645290988</v>
+      </c>
+      <c r="I46" s="12">
+        <v>63.585597511708933</v>
+      </c>
+      <c r="J46" s="10">
+        <v>1075783115.3766665</v>
+      </c>
+      <c r="K46" s="10">
+        <v>8757954426.8408546</v>
+      </c>
+      <c r="L46" s="10">
+        <v>3421181.7633333337</v>
+      </c>
+      <c r="M46" s="10">
+        <v>2640555.4966666661</v>
+      </c>
+      <c r="N46" s="10">
+        <v>3870354144.7909999</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" si="0"/>
+        <v>229.38213433435385</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="25">
+        <v>19610769</v>
+      </c>
+      <c r="E47" s="26">
+        <v>3</v>
+      </c>
+      <c r="F47" s="24">
+        <v>19923309</v>
+      </c>
+      <c r="G47" s="27">
+        <v>101.59371618726425</v>
+      </c>
+      <c r="H47" s="28">
+        <v>12469624.645290988</v>
+      </c>
+      <c r="I47" s="29">
+        <v>63.585597511708933</v>
+      </c>
+      <c r="J47" s="23">
+        <v>4166171010.4266276</v>
+      </c>
+      <c r="K47" s="23">
+        <v>31855550705.264912</v>
+      </c>
+      <c r="L47" s="23">
+        <v>13617233.606669998</v>
+      </c>
+      <c r="M47" s="23">
+        <v>11989985.803990975</v>
+      </c>
+      <c r="N47" s="23">
+        <v>14046758090.618301</v>
+      </c>
+      <c r="O47" s="26">
+        <f>SUM(J47:N47)/F47/12</f>
+        <v>209.52881131057973</v>
       </c>
     </row>
   </sheetData>
